--- a/downloaded_files/EECS101_Tutorial-35275.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -75,15 +75,6 @@
     <x:t>Ammar Waleed Mohamed Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد شحاته محمد عبد المغيث</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Shehata Mohamed Abdelmogheth</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220273</x:t>
   </x:si>
   <x:si>
@@ -145,6 +136,12 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -569,8 +566,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.770625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.580625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -809,7 +806,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6687470718</x:v>
+        <x:v>45907.5266986458</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -841,7 +838,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.5266986458</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -873,7 +870,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -905,7 +902,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -937,7 +934,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -969,7 +966,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1001,7 +998,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1029,11 +1026,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45928.9282471065</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>

--- a/downloaded_files/EECS101_Tutorial-35275.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35275.xlsx
@@ -108,7 +108,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1220287</x:t>

--- a/downloaded_files/EECS101_Tutorial-35275.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35275.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230019</x:t>
